--- a/Homework/HW3/test.xlsx
+++ b/Homework/HW3/test.xlsx
@@ -2,17 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanbaep2/Desktop/FIN514/Homework/HW3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12820" yWindow="700" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BD" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="d">Sheet1!$B$8</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Spot</t>
   </si>
@@ -75,6 +76,30 @@
   </si>
   <si>
     <t>q</t>
+  </si>
+  <si>
+    <t>STOCK PRICE TREE</t>
+  </si>
+  <si>
+    <t>Function OptionPrice(OptionType, S, X, T, r, v, d)</t>
+  </si>
+  <si>
+    <t>Call Option Price</t>
+  </si>
+  <si>
+    <t>American Option Price</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>nd1</t>
+  </si>
+  <si>
+    <t>nd2</t>
   </si>
 </sst>
 </file>
@@ -389,13 +414,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>0.02</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f>B5/C5</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>EXP($D$2 * SQRT($D$5))</f>
+        <v>1.1912462166123581</v>
+      </c>
+      <c r="B8">
+        <f>1/A8</f>
+        <v>0.83945702076920736</v>
+      </c>
+      <c r="C8">
+        <f>(EXP(($B$2 - $C$2) * $D$5) - B8) / (A8 - B8)</f>
+        <v>0.47060996200692995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <f>A11 * u</f>
+        <v>119.12462166123581</v>
+      </c>
+      <c r="C11">
+        <f>B11 * u</f>
+        <v>141.9067548593257</v>
+      </c>
+      <c r="D11">
+        <f>C11 * u</f>
+        <v>169.04588483790911</v>
+      </c>
+      <c r="E11">
+        <f>D11 * u</f>
+        <v>201.37527074704761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <f>A11 * d</f>
+        <v>83.945702076920739</v>
+      </c>
+      <c r="C12">
+        <f>B12 * u</f>
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <f>C12 * u</f>
+        <v>119.12462166123581</v>
+      </c>
+      <c r="E12">
+        <f>D12 * u</f>
+        <v>141.9067548593257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f>B12 * d</f>
+        <v>70.46880897187134</v>
+      </c>
+      <c r="D13">
+        <f>C13 * u</f>
+        <v>83.945702076920725</v>
+      </c>
+      <c r="E13">
+        <f>D13 * u</f>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f>C13 * d</f>
+        <v>59.155536436681508</v>
+      </c>
+      <c r="E14">
+        <f>D14 * u</f>
+        <v>70.46880897187134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <f>D14 * d</f>
+        <v>49.658530379140949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>MAX(MAX(K - A11, 0), EXP(-ir * dt) * (q * B19 + (1 - q) *B20))</f>
+        <v>10.275495295927801</v>
+      </c>
+      <c r="B19">
+        <f>MAX(MAX(K - B11, 0), EXP(-ir * dt) * (q * C19 + (1 - q) *C20))</f>
+        <v>3.5853496128154978</v>
+      </c>
+      <c r="C19">
+        <f>MAX(MAX(K - C11, 0), EXP(-ir * dt) * (q * D19 + (1 - q) *D20))</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>MAX(MAX(K - D11, 0), EXP(-ir * dt) * (q * E19 + (1 - q) *E20))</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>MAX(K - E11, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <f>MAX(MAX(K - B12, 0), EXP(-ir * dt) * (q * C20 + (1 - q) *C21))</f>
+        <v>16.320103449857047</v>
+      </c>
+      <c r="C20">
+        <f>MAX(MAX(K - C12, 0), EXP(-ir * dt) * (q * D20 + (1 - q) *D21))</f>
+        <v>6.8065528134950473</v>
+      </c>
+      <c r="D20">
+        <f>MAX(MAX(K - D12, 0), EXP(-ir * dt) * (q * E20 + (1 - q) *E21))</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>MAX(K - E12, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f>MAX(MAX(K - C13, 0), EXP(-ir * dt) * (q * D21 + (1 - q) *D22))</f>
+        <v>24.931857044205941</v>
+      </c>
+      <c r="D21">
+        <f>MAX(MAX(K - D13, 0), EXP(-ir * dt) * (q * E21 + (1 - q) *E22))</f>
+        <v>12.921797371530541</v>
+      </c>
+      <c r="E21">
+        <f>MAX(K - E13, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f>MAX(MAX(K - D14, 0), EXP(-ir * dt) * (q * E22 + (1 - q) *E23))</f>
+        <v>35.844463563318492</v>
+      </c>
+      <c r="E22">
+        <f>MAX(K - E14, 0)</f>
+        <v>24.53119102812866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <f>MAX(K - E15, 0)</f>
+        <v>45.341469620859051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -423,7 +696,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -437,7 +710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>95</v>
       </c>
@@ -452,181 +725,225 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>EXP($D$2 * SQRT($D$5))</f>
-        <v>1.1912462166123581</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <f>1/A8</f>
-        <v>0.83945702076920736</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <f>(EXP(($B$2 - $C$2) * $D$5) - B8) / (A8 - B8)</f>
-        <v>0.47060996200692995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>100</v>
       </c>
-      <c r="B11">
-        <f>A11 * u</f>
+      <c r="B9">
+        <f>A9 * u</f>
         <v>119.12462166123581</v>
       </c>
+      <c r="C9">
+        <f>B9 * u</f>
+        <v>141.9067548593257</v>
+      </c>
+      <c r="D9">
+        <f>C9 * u</f>
+        <v>169.04588483790911</v>
+      </c>
+      <c r="E9">
+        <f>D9 * u</f>
+        <v>201.37527074704761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <f>A9 * d</f>
+        <v>83.945702076920739</v>
+      </c>
+      <c r="C10">
+        <f>B10 * u</f>
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <f>C10 * u</f>
+        <v>119.12462166123581</v>
+      </c>
+      <c r="E10">
+        <f>D10 * u</f>
+        <v>141.9067548593257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11">
-        <f>B11 * u</f>
-        <v>141.9067548593257</v>
+        <f>B10 * d</f>
+        <v>70.46880897187134</v>
       </c>
       <c r="D11">
         <f>C11 * u</f>
-        <v>169.04588483790911</v>
+        <v>83.945702076920725</v>
       </c>
       <c r="E11">
         <f>D11 * u</f>
-        <v>201.37527074704761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <f>A11 * d</f>
-        <v>83.945702076920739</v>
-      </c>
-      <c r="C12">
-        <f>B12 * u</f>
-        <v>100</v>
-      </c>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D12">
-        <f>C12 * u</f>
-        <v>119.12462166123581</v>
+        <f>C11 * d</f>
+        <v>59.155536436681508</v>
       </c>
       <c r="E12">
         <f>D12 * u</f>
-        <v>141.9067548593257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13">
-        <f>B12 * d</f>
         <v>70.46880897187134</v>
       </c>
-      <c r="D13">
-        <f>C13 * u</f>
-        <v>83.945702076920725</v>
-      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E13">
-        <f>D13 * u</f>
-        <v>99.999999999999986</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14">
-        <f>C13 * d</f>
-        <v>59.155536436681508</v>
-      </c>
-      <c r="E14">
-        <f>D14 * u</f>
-        <v>70.46880897187134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E15">
-        <f>D14 * d</f>
+        <f>D12 * d</f>
         <v>49.658530379140949</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f>MAX(MAX(K - A11, 0), EXP(-ir * dt) * (q * B19 + (1 - q) *B20))</f>
-        <v>10.275495295927801</v>
-      </c>
-      <c r="B19">
-        <f>MAX(MAX(K - B11, 0), EXP(-ir * dt) * (q * C19 + (1 - q) *C20))</f>
-        <v>3.5853496128154978</v>
-      </c>
-      <c r="C19">
-        <f>MAX(MAX(K - C11, 0), EXP(-ir * dt) * (q * D19 + (1 - q) *D20))</f>
-        <v>0</v>
-      </c>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>2.5835914365162777E-3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>0.80509140383431976</v>
+      </c>
+      <c r="G18">
+        <f>(LN(D9 / $A$5) + (ir - $C$2 + 0.5 * $D$2 * $D$2) * $D$5) / ($D$2 * SQRT($D$5))</f>
+        <v>3.4091759679288591</v>
+      </c>
+      <c r="H18">
+        <f>G18 - $D$2 * SQRT($D$5)</f>
+        <v>3.2341759679288593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D19">
-        <f>MAX(MAX(K - D11, 0), EXP(-ir * dt) * (q * E19 + (1 - q) *E20))</f>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f>MAX(K - E11, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <f>MAX(MAX(K - B12, 0), EXP(-ir * dt) * (q * C20 + (1 - q) *C21))</f>
-        <v>16.320103449857047</v>
-      </c>
-      <c r="C20">
-        <f>MAX(MAX(K - C12, 0), EXP(-ir * dt) * (q * D20 + (1 - q) *D21))</f>
-        <v>6.8065528134950473</v>
-      </c>
+        <v>12.885772322857953</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D20">
-        <f>MAX(MAX(K - D12, 0), EXP(-ir * dt) * (q * E20 + (1 - q) *E21))</f>
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <f>MAX(K - E12, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <f>MAX(MAX(K - C13, 0), EXP(-ir * dt) * (q * D21 + (1 - q) *D22))</f>
-        <v>24.931857044205941</v>
-      </c>
-      <c r="D21">
-        <f>MAX(MAX(K - D13, 0), EXP(-ir * dt) * (q * E21 + (1 - q) *E22))</f>
-        <v>12.921797371530541</v>
-      </c>
-      <c r="E21">
-        <f>MAX(K - E13, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D22">
-        <f>MAX(MAX(K - D14, 0), EXP(-ir * dt) * (q * E22 + (1 - q) *E23))</f>
+        <v>35.385489784704923</v>
+      </c>
+      <c r="G20">
+        <f>_xlfn.NORM.DIST(-G18,0,1,1)</f>
+        <v>3.2579717358232832E-4</v>
+      </c>
+      <c r="H20">
+        <f>_xlfn.NORM.DIST(-H18,0,1,1)</f>
+        <v>6.0997132808469847E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>MAX(MAX($A$5 - A9, 0), EXP(-ir * dt) * (q * B23 + (1 - q) * B24))</f>
+        <v>10.540683923776442</v>
+      </c>
+      <c r="B23">
+        <f>MAX(MAX($A$5 - B9, 0), EXP(-ir * dt) * (q * C23 + (1 - q) * C24))</f>
+        <v>3.9730837279293407</v>
+      </c>
+      <c r="C23">
+        <f>MAX(MAX($A$5 - C9, 0), EXP(-ir * dt) * (q * D23 + (1 - q) * D24))</f>
+        <v>0.42529145046474554</v>
+      </c>
+      <c r="D23">
+        <f>MAX(D17, MAX($A$5 - D9, 0))</f>
+        <v>2.5835914365162777E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <f>MAX(MAX($A$5 - B10, 0), EXP(-ir * dt) * (q * C24 + (1 - q) * C25))</f>
+        <v>16.478864189884405</v>
+      </c>
+      <c r="C24">
+        <f>MAX(MAX($A$5 - C10, 0), EXP(-ir * dt) * (q * D24 + (1 - q) * D25))</f>
+        <v>7.1645709730871392</v>
+      </c>
+      <c r="D24">
+        <f>MAX(D18, MAX($A$5 - D10, 0))</f>
+        <v>0.80509140383431976</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f>MAX(MAX($A$5 - C11, 0), EXP(-ir * dt) * (q * D25 + (1 - q) * D26))</f>
+        <v>24.9149878545837</v>
+      </c>
+      <c r="D25">
+        <f>MAX(D19, MAX($A$5 - D11, 0))</f>
+        <v>12.885772322857953</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f>MAX(D20, MAX($A$5 - D12, 0))</f>
         <v>35.844463563318492</v>
-      </c>
-      <c r="E22">
-        <f>MAX(K - E14, 0)</f>
-        <v>24.53119102812866</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E23">
-        <f>MAX(K - E15, 0)</f>
-        <v>45.341469620859051</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Homework/HW3/test.xlsx
+++ b/Homework/HW3/test.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="BD" sheetId="2" r:id="rId2"/>
+    <sheet name="Barrier" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="d">Sheet1!$B$8</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Spot</t>
   </si>
@@ -100,16 +101,45 @@
   </si>
   <si>
     <t>nd2</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Barrier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,13 +162,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,9 +456,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -664,7 +701,9 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -946,4 +985,295 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>95</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <f>C5/D5</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>EXP($D$2 * SQRT($E$5))</f>
+        <v>1.1118952782720986</v>
+      </c>
+      <c r="B8">
+        <f>1/A8</f>
+        <v>0.89936527255877419</v>
+      </c>
+      <c r="C8">
+        <f>(EXP(($B$2 - $C$2) * $E$5) - B8) / (A8 - B8)</f>
+        <v>0.53269268309610007</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1">
+        <f>A11*$A$8</f>
+        <v>111.18952782720986</v>
+      </c>
+      <c r="C11" s="1">
+        <f>B11*$A$8</f>
+        <v>123.63111098437875</v>
+      </c>
+      <c r="D11" s="1">
+        <f>C11*$A$8</f>
+        <v>137.46484855106451</v>
+      </c>
+      <c r="E11" s="1">
+        <f>D11*$A$8</f>
+        <v>152.84651603231777</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <f>A11*$B$8</f>
+        <v>89.936527255877422</v>
+      </c>
+      <c r="C12" s="1">
+        <f>B12*$A$8</f>
+        <v>100</v>
+      </c>
+      <c r="D12" s="1">
+        <f>C12*$A$8</f>
+        <v>111.18952782720986</v>
+      </c>
+      <c r="E12" s="1">
+        <f>D12*$A$8</f>
+        <v>123.63111098437875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <f>B12*$B$8</f>
+        <v>80.885789348471818</v>
+      </c>
+      <c r="D13" s="1">
+        <f>C13*$A$8</f>
+        <v>89.936527255877422</v>
+      </c>
+      <c r="E13" s="1">
+        <f>D13*$A$8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <f>C13*$B$8</f>
+        <v>72.745869983519952</v>
+      </c>
+      <c r="E14" s="1">
+        <f>D14*$A$8</f>
+        <v>80.885789348471818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <f>D14*$B$8</f>
+        <v>65.425109185253575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>IF(A11 &gt; $B$5, EXP(-$B$2 * $E$5) * ($C$8 * B18 + (1 - $C$8) * B19), 0)</f>
+        <v>8.8111724232498485</v>
+      </c>
+      <c r="B18">
+        <f>IF(B11 &gt; $B$5, EXP(-$B$2 * $E$5) * ($C$8 * C18 + (1 - $C$8) * C19), 0)</f>
+        <v>16.7488753116256</v>
+      </c>
+      <c r="C18">
+        <f>IF(C11 &gt; $B$5, EXP(-$B$2 * $E$5) * ($C$8 * D18 + (1 - $C$8) * D19), 0)</f>
+        <v>26.100119781545501</v>
+      </c>
+      <c r="D18">
+        <f>IF(D11 &gt; $B$5, EXP(-$B$2 * $E$5) * ($C$8 * E18 + (1 - $C$8) * E19), 0)</f>
+        <v>38.707068501676382</v>
+      </c>
+      <c r="E18">
+        <f>IF(E11 &gt; $B$5, MAX(E11 - $A$5, 0), 0)</f>
+        <v>52.846516032317766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <f>IF(B12 &gt; $B$5, EXP(-$B$2 * $E$5) * ($C$8 * C19 + (1 - $C$8) * C20), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f>IF(C12 &gt; $B$5, EXP(-$B$2 * $E$5) * ($C$8 * D19 + (1 - $C$8) * D20), 0)</f>
+        <v>6.5400375341446635</v>
+      </c>
+      <c r="D19">
+        <f>IF(D12 &gt; $B$5, EXP(-$B$2 * $E$5) * ($C$8 * E19 + (1 - $C$8) * E20), 0)</f>
+        <v>12.43174777782172</v>
+      </c>
+      <c r="E19">
+        <f>IF(E12 &gt; $B$5, MAX(E12 - $A$5, 0), 0)</f>
+        <v>23.631110984378751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f>IF(C13 &gt; $B$5, EXP(-$B$2 * $E$5) * ($C$8 * D20 + (1 - $C$8) * D21), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>IF(D13 &gt; $B$5, EXP(-$B$2 * $E$5) * ($C$8 * E20 + (1 - $C$8) * E21), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>IF(E13 &gt; $B$5, MAX(E13 - $A$5, 0), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f>IF(D14 &gt; $B$5, EXP(-$B$2 * $E$5) * ($C$8 * E21 + (1 - $C$8) * E22), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>IF(E14 &gt; $B$5, MAX(E14 - $A$5, 0), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <f>IF(E15 &gt; $B$5, MAX(E15 - $A$5, 0), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>